--- a/mf-intelligence/data/separated_files/nippon/Nippon India Flexi Cap Fund/Nippon India Flexi Cap Fund_Apr_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Flexi Cap Fund/Nippon India Flexi Cap Fund_Apr_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3357,68 +3357,6 @@
         <v>0.0043</v>
       </c>
       <c r="H91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Long/Short</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Quantity.</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Market/Fair Value (Rs. in Lacs).</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> % to NAV.</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Angel One Limited_29/05/2025</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Capital Markets</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>266400</v>
-      </c>
-      <c r="F93" t="n">
-        <v>6037.69</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
